--- a/magazyn/UAT magazyn.xlsx
+++ b/magazyn/UAT magazyn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gojma\OneDrive\Робочий стіл\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B698CB47-6BDB-45DE-BDE1-358AED8BEFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C9CC1-4304-47A1-B344-A3C654E754D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="237">
   <si>
     <t>Scenariush Testowy</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Niepoprawne dodanie użytkownika: Pesel 10 znaków</t>
   </si>
   <si>
-    <t>Pesel: 8202129453</t>
-  </si>
-  <si>
     <t>System wyswietla komunikat: "Nieprawidłowy numer PESEL!"</t>
   </si>
   <si>
@@ -114,24 +111,12 @@
     <t>Niepoprawne dodanie użytkownika: Pesel 12 znaków</t>
   </si>
   <si>
-    <t>Pesel: 83021294538</t>
-  </si>
-  <si>
-    <t>Pesel: 820212945388</t>
-  </si>
-  <si>
     <t>Niepoprawne dodanie użytkownika: Pesel nieprawidłowa płeć</t>
   </si>
   <si>
-    <t>Pesel: 82021294548</t>
-  </si>
-  <si>
     <t>Niepoprawne dodanie użytkownika: Pesel zawiera literę</t>
   </si>
   <si>
-    <t>Pesel: B2021294538</t>
-  </si>
-  <si>
     <t>TC_1.1.7</t>
   </si>
   <si>
@@ -144,27 +129,18 @@
     <t>Niepoprawne dodanie użytkownika: Pesel zła cyfra kontrolna</t>
   </si>
   <si>
-    <t>Pesel: 82021294539</t>
-  </si>
-  <si>
     <t>TC_1.1.8</t>
   </si>
   <si>
     <t>Niepoprawne dodanie użytkownika: Email brak znaku "@"</t>
   </si>
   <si>
-    <t>Email: adam.mickiewicz82gmail.com</t>
-  </si>
-  <si>
     <t>TC_1.1.9</t>
   </si>
   <si>
     <t>Niepoprawne dodanie użytkownika: Email brak domeny</t>
   </si>
   <si>
-    <t>Email: adam.mickiewicz82@</t>
-  </si>
-  <si>
     <t>System wyswietla komunikat: "Nieprawidłowy adres email!"</t>
   </si>
   <si>
@@ -174,27 +150,18 @@
     <t>Niepoprawne dodanie użytkownika: Numer telefonu za krótki</t>
   </si>
   <si>
-    <t>Numer Telefonu: 73212629</t>
-  </si>
-  <si>
     <t>TC_1.1.11</t>
   </si>
   <si>
     <t>Niepoprawne dodanie użytkownika: Numer telefonu za długi</t>
   </si>
   <si>
-    <t>Numer Telefonu: 7321262970</t>
-  </si>
-  <si>
     <t>TC_1.1.12</t>
   </si>
   <si>
     <t>Niepoprawne dodanie użytkownika: Numer telefonu zawiera literę</t>
   </si>
   <si>
-    <t>Numer Telefonu: 73212629A</t>
-  </si>
-  <si>
     <t>System wyswietla komunikat: "Nieprawidłowy numer telefonu!"</t>
   </si>
   <si>
@@ -204,9 +171,6 @@
     <t>Niepoprawne dodanie użytkownika: Kod pocztowy brak znaku "-"</t>
   </si>
   <si>
-    <t>Kod pocztowy: 90234</t>
-  </si>
-  <si>
     <t>System wyswietla komunikat: "Nieprawidłowy format kodu pocztowego!"</t>
   </si>
   <si>
@@ -216,15 +180,9 @@
     <t>Niepoprawne dodanie użytkownika: Kod pocztowy zawiera literę</t>
   </si>
   <si>
-    <t>Kod pocztowy: 90-23A</t>
-  </si>
-  <si>
     <t>TC_1.1.15</t>
   </si>
   <si>
-    <t>Kod pocztowy: 901-234</t>
-  </si>
-  <si>
     <t>TC_1.1.16</t>
   </si>
   <si>
@@ -234,19 +192,10 @@
     <t>Niepoprawne dodanie użytkownika: Kod pocztowy składający się 3 lub więcej cyfr przed znakiem "-"</t>
   </si>
   <si>
-    <t>Kod pocztowy: 90-2345</t>
-  </si>
-  <si>
     <t>Niepoprawne dodanie użytkownika: Pesel jest zajęty</t>
   </si>
   <si>
-    <t>Pesel: 82021294538</t>
-  </si>
-  <si>
     <t>Niepoprawne dodanie użytkownika: Login jest zajęty</t>
-  </si>
-  <si>
-    <t>Login: Amickiewicz</t>
   </si>
   <si>
     <t>TC_1.1.17</t>
@@ -288,9 +237,6 @@
   </si>
   <si>
     <t>Niepoprawne dodanie użytkownika: Brakuje wymaganych pól</t>
-  </si>
-  <si>
-    <t>Imię: " "</t>
   </si>
   <si>
     <t>System wyswietla komunikat: "Wypełnij wszyskie wymagane pola!"</t>
@@ -471,9 +417,6 @@
     <t>Pesel: 00220262637</t>
   </si>
   <si>
-    <t>System wyswietla użytkowników z PESEL: 220262637</t>
-  </si>
-  <si>
     <t>TC_1.4.4</t>
   </si>
   <si>
@@ -513,9 +456,6 @@
     <t>TC_1.5.1</t>
   </si>
   <si>
-    <t>Brak</t>
-  </si>
-  <si>
     <t>Poprawne wyszukiwanie użytkowników zapomnianych</t>
   </si>
   <si>
@@ -547,6 +487,204 @@
   </si>
   <si>
     <t>System wyswietla dane użytkownika</t>
+  </si>
+  <si>
+    <t>TC_1.6.1</t>
+  </si>
+  <si>
+    <t>Niepoprawna edycja użytkownika: Numer telefonu zajęty</t>
+  </si>
+  <si>
+    <t>Zmiana numeru telefonu z 732126297 na 555100999</t>
+  </si>
+  <si>
+    <t>System wyswietla komunikat: "Numer_Telefonu musi być unikalny!"</t>
+  </si>
+  <si>
+    <t>System wyswietla użytkownika z PESEL: 220262637</t>
+  </si>
+  <si>
+    <t>T_2.1</t>
+  </si>
+  <si>
+    <t>Zarządzanie uprawnieniami</t>
+  </si>
+  <si>
+    <t>Umożliwienie adminowi kontrolowania uprawnień użytkowników w systemie.</t>
+  </si>
+  <si>
+    <t>Admin jest zalogowany w systemie i posiada odpowiednie uprawnienia.</t>
+  </si>
+  <si>
+    <t>Zostaje wyświetlona tabela z uprawnieniami.</t>
+  </si>
+  <si>
+    <t>T_2.1.1</t>
+  </si>
+  <si>
+    <t>Poprawne zarządzanie uprawnieniami</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: 8202129453</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: 83021294538</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: 820212945388</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: 82021294548</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: B2021294538</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: 82021294539</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Email: adam.mickiewicz82gmail.com</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Email: adam.mickiewicz82@</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Numer Telefonu: 73212629</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Numer Telefonu: 7321262970</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Numer Telefonu: 73212629A</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Kod pocztowy: 90234</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Kod pocztowy: 90-23A</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Kod pocztowy: 901-234</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Kod pocztowy: 90-2345</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Login: Amickiewicz</t>
+  </si>
+  <si>
+    <t>Z TC_1.1.1 wprowadzamy dane i zmieniamy Pesel: 82021294538</t>
+  </si>
+  <si>
+    <t>W polach dodania użytkownika z TC_1.1.1 wprowadzamy dane i zmieniamy wymagane pola na " "</t>
+  </si>
+  <si>
+    <t>1.Aktor loguje się jako Admin
+2.Aktor naciska przycisk „Lista Stanowisk”
+3.System wyświetla tabelę z dostępnymi uprawnieniami.</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk"</t>
+  </si>
+  <si>
+    <t>T_2.1.2</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk" zatem wybiera uprawnienie Administrator i naciska przycisk "Informacje o uprawnieniach"</t>
+  </si>
+  <si>
+    <t>System wyswietla tabele z uprawnieniami u Administratora (zarządzanie uprwanieniami użytkowników, zarządzanie danymi użytkowników, zapominanie użytkowników, dodawanie nowych użytkowników, przeglądanie listy użytkowników, przegladanie listy zapomniancyh użytkowników, przeglądanie listy ról użytkowników)</t>
+  </si>
+  <si>
+    <t>Podgląd informacji o uprawnieniach u Administratora</t>
+  </si>
+  <si>
+    <t>T_2.1.3</t>
+  </si>
+  <si>
+    <t>Podgląd informacji o uprawnieniach u Magazyniera</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk" zatem wybiera uprawnienie Magazynier i naciska przycisk "Informacje o uprawnieniach"</t>
+  </si>
+  <si>
+    <t>System wyswietla tabele z uprawnieniami u Magazyniera (przeglądanie listy użytkowników)</t>
+  </si>
+  <si>
+    <t>T_2.1.4</t>
+  </si>
+  <si>
+    <t>Podgląd informacji o uprawnieniach u Brygadzisty</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk" zatem wybiera uprawnienie Brygadzista i naciska przycisk "Informacje o uprawnieniach"</t>
+  </si>
+  <si>
+    <t>System wyswietla tabele z uprawnieniami u Brygadzisty (przeglądanie listy użytkowników, przeglądanie listy zapomnianych użytkowników)</t>
+  </si>
+  <si>
+    <t>T_2.1.5</t>
+  </si>
+  <si>
+    <t>Podgląd informacji o uprawnieniach u Kierownika</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk" zatem wybiera uprawnienie Kierownik i naciska przycisk "Informacje o uprawnieniach"</t>
+  </si>
+  <si>
+    <t>System wyswietla tabele z uprawnieniami u Kierownika (zapominanie użytkowników, dodawanie nowych użytkowników, przeglądanie listy użytkowników, przegladanie listy zapomniancyh użytkowników)</t>
+  </si>
+  <si>
+    <t>T_2.1.6</t>
+  </si>
+  <si>
+    <t>Podgląd informacji o uprawnieniach u Kontroleru jakosci</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk" zatem wybiera uprawnienie Kontroler jakosci i naciska przycisk "Informacje o uprawnieniach"</t>
+  </si>
+  <si>
+    <t>System wyswietla tabele z uprawnieniami u Kierownika (przeglądanie listy użytkowników, przeglądanie listy zapomnianych użytkowników)</t>
+  </si>
+  <si>
+    <t>T_2.1.7</t>
+  </si>
+  <si>
+    <t>Niepoprawny podgłąd informacji</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk" zatem wybiera puste uprawnienie i naciska przycisk "Informacje o uprawnieniach"</t>
+  </si>
+  <si>
+    <t>System wyswietla komunikat: "Nie znaleziono uprawnienia!"</t>
+  </si>
+  <si>
+    <t>T_2.2</t>
+  </si>
+  <si>
+    <t>Nadawanie uprawnienia użytkownikowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umożliwienie adminowi nadawania uprawnień użytkownikom w systemie. </t>
+  </si>
+  <si>
+    <t>Uprawnienia użytkownika zostały nadane i zapisane w systemie.</t>
+  </si>
+  <si>
+    <t>1.Aktor się loguje jako Admin
+2.Aktor naciska przycisk „Dodaj użytkownika”
+3. Aktor wypełnia formularz, podając dane użytkownika: login, hasło, imię, nazwisko, Pesel, data urodzenia, płeć, adres email, numer telefonu, miejscowość, kod pocztowy, ulica (niewymagany), nr posesji, nr lokalu (niewymagany), uprawnienia. 
+4. Aktor po wypełnieniu wszystkich pół wymaganych, akceptuje wprowadzone dane przyciskiem „Zapisz”.
+5.System sprawdza poprawność danych zgodnie z warunkami walidacji z user story
+6.System rozpoznaje dane jako poprawne
+7.System tworzy nowe konto użytkownika. 
+8.System wyświetla komunikat: „Użytkownik dodany pomyślnie!”.
+9.Aktor zamyka wyświetlony komunikat przyciskiem „OK” lub x
+10.System odświeża listę użytkowników
+11.System przenosi aktora do panelu Listy Użytkowników</t>
+  </si>
+  <si>
+    <t>T_2.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">1. Login: Amickiewicz
@@ -563,26 +701,112 @@
 12. Ulica: Jaworowska
 13. Nr. Posesji: 55
 14. Nr. Lokalu: 12
-15. Uprawnienia: </t>
-  </si>
-  <si>
-    <t>TC_1.6.1</t>
-  </si>
-  <si>
-    <t>Niepoprawna edycja użytkownika: Numer telefonu zajęty</t>
-  </si>
-  <si>
-    <t>Zmiana numeru telefonu z 732126297 na 555100999</t>
-  </si>
-  <si>
-    <t>System wyswietla komunikat: "Numer_Telefonu musi być unikalny!"</t>
+ </t>
+  </si>
+  <si>
+    <t>T_2.2.2</t>
+  </si>
+  <si>
+    <t>Poprawne nadanie uprawnienia użytkownikowi</t>
+  </si>
+  <si>
+    <t>Niepoprawne nadanie uprawnień użytkownikowi: Numer telefonu nie składa się z 9 cyfr</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i zmienia Numer telefonu na: 73212629</t>
+  </si>
+  <si>
+    <t>T_2.2.3</t>
+  </si>
+  <si>
+    <t>Niepoprawne nadanie uprawnień użytkownikowi: Imię lub Nazwisko zawierają cyfry</t>
+  </si>
+  <si>
+    <t>T_2.2.4</t>
+  </si>
+  <si>
+    <t>Niepoprawne nadanie uprawnień użytkownikowi: Kod pocztowy niepoprawny format</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i zmienia Imie/Nazwisko na: Adam1/Mickiewicz2 Imie/Nazwisko na: Adam1/Mickiewicz2</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i zmienia Kod pocztowy na 90234</t>
+  </si>
+  <si>
+    <t>T_2.2.5</t>
+  </si>
+  <si>
+    <t>Niepoprawne nadanie uprawnień użytkownikowi: Nieprawidłowy adres e-mail</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i zmienia E-mail na adam.mickiewicz82gmail.com</t>
+  </si>
+  <si>
+    <t>T_2.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niepoprawne nadanie uprawnień użytkownikowi: Nie podano numeru PESEL </t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i zmienia PESEL na 82021294535</t>
+  </si>
+  <si>
+    <t>T_2.2.7</t>
+  </si>
+  <si>
+    <t>Niepoprawne nadanie uprawnień użytkownikowi: PESEL nie składa się z 11 cyfr</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i zmienia PESEL na 8202129453</t>
+  </si>
+  <si>
+    <t>T_2.3</t>
+  </si>
+  <si>
+    <t>Przegląd użytkowników o danym uprawnieniu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umożliwienie adminowi przeglądania użytkowników według posiadanych uprawnień. </t>
+  </si>
+  <si>
+    <t>Admin jest zalogowany w systemie i posiada uprawnienia do przeglądania listy użytkowników</t>
+  </si>
+  <si>
+    <t>Lista użytkowników spełniających kryteria została wyświetlona.</t>
+  </si>
+  <si>
+    <t>1.Aktor się loguje jako Admin
+2.Aktor naciska przycisk „Lista użytkowników”
+3.System wyświetla tabelę użytkowników.
+4.Aktor wybiera uprawnienie do filtrowania.
+5.System dynamicznie aktualizuje  wyświetlaną tabelę z użytkownikami posiadających wybrane uprawnienie.
+6.Aktor przegląda tabelę i ma możliwość zobaczyć jakie dany użytkownik posiada uprawnienia</t>
+  </si>
+  <si>
+    <t>T_2.3.1</t>
+  </si>
+  <si>
+    <t>Poprawny przegłąd użytkowników o danym uprawnieniu</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Dodaj użytkownika" Aktor wprowadza dane z TC_1.1.1 i w checkboxie "Uprawnienia" wybiera potrzebne uprawnienie dla użytkownika</t>
+  </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista użytkowników" system wyświetla tabelę z wyświetlanymi aktywnymi użytkownikami znajduje się wiersz z nagłówkiem „Stanowisko”(ostatni wierz po prawej stronie). Przy każdym użytkowniku ma być wyświetlane Stanowisko jakie zostało mu nadane. Tuż nad nagłówkiem „Stanowisko” znajduje się checkbox w którym są wszystkie wprowadzone w system stanowiska i służy on do filtrowania użytkowników po przypisanych im uprawnieniom (domyślnie filtrowanie jest po wszystkich uprawnieniach w systemie)</t>
+  </si>
+  <si>
+    <t>System dynamicznie aktualizuje  wyświetlaną tabelę z użytkownikami posiadających wybrane uprawnienie.</t>
+  </si>
+  <si>
+    <t>System wyświetla Administratorowi tabelę (która składa się z dwóch koulmn patrząc od lewej strony pierwsza to id_uprawnienia a druga kolumna to nazwa uprawnienia)wyświetlane są wprowadzone w system uprawnienia które mogą zostać nadane danemu użytkownikowi i są to 1.Administrator 2.Magazynier 3.Brygadzista 4.Kierownik 5.Kontroler jakości. W prawym górnym rogu ma się znajdować przycisk „Informacje o uprawnieniach”. Ma on za zadanie informować użytkownika co dane uprawnienie robi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,27 +825,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -632,7 +855,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -958,157 +1181,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1393,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="83" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="64" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,835 +1670,1143 @@
       <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="252" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="327" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="H25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="303.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="314.39999999999998" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="302.39999999999998" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" ht="294" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="317.39999999999998" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="409.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J46" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="G48" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D49" s="5"/>
+      <c r="G49" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G50" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G51" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="327" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" ht="303.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="314.39999999999998" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" ht="302.39999999999998" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" ht="294" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="J39" s="41"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F41" s="17"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="17"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="3"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="54"/>
+      <c r="G52" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" ht="339.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="J54" s="50"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E59" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/magazyn/UAT magazyn.xlsx
+++ b/magazyn/UAT magazyn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gojma\OneDrive\Робочий стіл\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C9CC1-4304-47A1-B344-A3C654E754D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6CA3B1-607C-4922-8ED9-FCA675264F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="370">
   <si>
     <t>Scenariush Testowy</t>
   </si>
@@ -582,9 +582,6 @@
     <t>1.Aktor loguje się jako Admin
 2.Aktor naciska przycisk „Lista Stanowisk”
 3.System wyświetla tabelę z dostępnymi uprawnieniami.</t>
-  </si>
-  <si>
-    <t>Admin loguje się do systemu: login: jkucharski, nazwisko: Nh@123, naciska przycisk "Lista Stanowisk"</t>
   </si>
   <si>
     <t>T_2.1.2</t>
@@ -801,17 +798,571 @@
   <si>
     <t>System wyświetla Administratorowi tabelę (która składa się z dwóch koulmn patrząc od lewej strony pierwsza to id_uprawnienia a druga kolumna to nazwa uprawnienia)wyświetlane są wprowadzone w system uprawnienia które mogą zostać nadane danemu użytkownikowi i są to 1.Administrator 2.Magazynier 3.Brygadzista 4.Kierownik 5.Kontroler jakości. W prawym górnym rogu ma się znajdować przycisk „Informacje o uprawnieniach”. Ma on za zadanie informować użytkownika co dane uprawnienie robi.</t>
   </si>
+  <si>
+    <t>Admin loguje się do systemu: login: jkucharski, hasło: Nh@123, naciska przycisk "Lista Stanowisk"</t>
+  </si>
+  <si>
+    <t>T_3.1</t>
+  </si>
+  <si>
+    <t>Logowanie użytkownika</t>
+  </si>
+  <si>
+    <t>Umożliwienie użytkownikowi zalogowania się do systemu.</t>
+  </si>
+  <si>
+    <t>Użytkownik nie jest zalogowany; posiada konto w systemie</t>
+  </si>
+  <si>
+    <t>Użytkownik został zalogowany.</t>
+  </si>
+  <si>
+    <t>T_3.1.1</t>
+  </si>
+  <si>
+    <t>Logowanie jako admin</t>
+  </si>
+  <si>
+    <t>Login: admin
+Hasło: Admin123!</t>
+  </si>
+  <si>
+    <t>T_3.1.2</t>
+  </si>
+  <si>
+    <t>Logowanie jako magazynier</t>
+  </si>
+  <si>
+    <t>Login: magazynier1
+Hasło: Maga123!</t>
+  </si>
+  <si>
+    <t>T_3.1.3</t>
+  </si>
+  <si>
+    <t>Logowanie jako kierownik</t>
+  </si>
+  <si>
+    <t>Login: kierownik1
+Hasło: Kier123!</t>
+  </si>
+  <si>
+    <t>T_3.1.4</t>
+  </si>
+  <si>
+    <t>Login: pracownik1
+Hasło: 0d&amp;aO$RRg7</t>
+  </si>
+  <si>
+    <t>T_3.1.5</t>
+  </si>
+  <si>
+    <t>T_3.2</t>
+  </si>
+  <si>
+    <t>Wylogowanie z systemu</t>
+  </si>
+  <si>
+    <t>Umożliwienie użytkownikowi wylogowania z systemu</t>
+  </si>
+  <si>
+    <t>Użytkownik jest zalogowany.</t>
+  </si>
+  <si>
+    <t>Użytkownik został wylogowany.</t>
+  </si>
+  <si>
+    <t>T_3.2.1</t>
+  </si>
+  <si>
+    <t>Użytkownik zostaje wylogowany
+System udostępnia panel logowania.</t>
+  </si>
+  <si>
+    <t>Aktor naciska na przycisk „wyloguj się”</t>
+  </si>
+  <si>
+    <t>Logowanie jako kontroler jakosci</t>
+  </si>
+  <si>
+    <t>Logowanie jako brygadzista</t>
+  </si>
+  <si>
+    <t>Login: brygadzista1
+Hasło: Brygadzista123!</t>
+  </si>
+  <si>
+    <t>T_3.3</t>
+  </si>
+  <si>
+    <t>Zmiana hasła użytkownika</t>
+  </si>
+  <si>
+    <t>Umożliwienie zmiany hasła</t>
+  </si>
+  <si>
+    <t>Aktor zalogowany jako Admin</t>
+  </si>
+  <si>
+    <t>Hasło użytkownika zostało zmienione</t>
+  </si>
+  <si>
+    <t>T_3.3.1</t>
+  </si>
+  <si>
+    <t>Poprawna zmiana hasła użytkownika</t>
+  </si>
+  <si>
+    <t>1. Aktor otwiera panel Lista użytkowników.
+2. System udostępnia panel Lista użytkowników
+3. Aktor wybiera użytkownika którego hasło ma być zmienione z tabeli wyświetlanej (Maria Wójcik)
+4. Aktor przechodzi do panelu edytuj dane tego użytkownika.
+5. System udostępnia panel edycja użytkownika
+6.Aktor zmienia hasło użytkownika w polu hasło, które musi być zgodne z walidacją haseł
+7.Aktor naciska przycisk Zapisz</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i  wyswietla komunikat: "Dane zostały zaktualizowane!"</t>
+  </si>
+  <si>
+    <t>T_3.3.2</t>
+  </si>
+  <si>
+    <t>Niepoprawna zmiana hasła użytkownika: nie wprowadzono żadnych zmian hasła</t>
+  </si>
+  <si>
+    <t>Nowe hasło: Kjakosci123!</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i  wyswietla komunikat: "Nie dokonano żadnych zmian!"</t>
+  </si>
+  <si>
+    <t>T_3.3.3</t>
+  </si>
+  <si>
+    <t>Niepoprawna zmiana hasła użytkownika: hasło zawiera mniej 8 znaków</t>
+  </si>
+  <si>
+    <t>Nowe hasło: Kjakosci12!</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i  wyswietla że hasło nie spełnia kryteriów walidacji"</t>
+  </si>
+  <si>
+    <t>T_3.3.4</t>
+  </si>
+  <si>
+    <t>Niepoprawna zmiana hasła użytkownika: hasło zawiera więcej 15 znaków</t>
+  </si>
+  <si>
+    <t>Nowe hasło: Kjakosci123456789!</t>
+  </si>
+  <si>
+    <t>T_3.3.5</t>
+  </si>
+  <si>
+    <t>Niepoprawna zmiana hasła użytkownika: hasło nie zawiera małej litery</t>
+  </si>
+  <si>
+    <t>Nowe hasło: KJAKOSCI123456789!</t>
+  </si>
+  <si>
+    <t>T_3.3.6</t>
+  </si>
+  <si>
+    <t>Niepoprawna zmiana hasła użytkownika: hasło nie zawiera cyfr</t>
+  </si>
+  <si>
+    <t>Nowe hasło: Kjakosci!</t>
+  </si>
+  <si>
+    <t>T_3.3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niepoprawna zmiana hasła użytkownika: hasło nie zawiera specjalnych znaków: -, _, !, *, #, $, &amp;.” </t>
+  </si>
+  <si>
+    <t>Nowe hasło: Kjakosci123</t>
+  </si>
+  <si>
+    <t>T_3.4</t>
+  </si>
+  <si>
+    <t>Odzyskanie hasła</t>
+  </si>
+  <si>
+    <t>Umożliwienie użytkownikowi odzyskania zapomnianego hasła</t>
+  </si>
+  <si>
+    <t>Użytkownik nie jest zalogowany do systemu.</t>
+  </si>
+  <si>
+    <t>System wyświetla użytkownikowi jego hasło</t>
+  </si>
+  <si>
+    <t>T_3.4.1</t>
+  </si>
+  <si>
+    <t>Login: brygadzista1
+Email: adam.lewandowski@firmowy.pl</t>
+  </si>
+  <si>
+    <t>1. Użytkownik naciska przycisk „Zapomniałem hasła”.
+2. System wyświetla formularz z polami: login oraz adres e-mail.
+3. Użytkownik wprowadza swój login i adres e-mail przypisany do konta.
+4. Użytkownik naciska przycisk „Odzyskaj hasło”.</t>
+  </si>
+  <si>
+    <t>System weryfikuje, czy wprowadzone dane odpowiadają istniejącemu użytkownikowi.
+System wyświetla użytkownikowi jego aktualne hasło w formie komunikatu (Twoje hasło: Brygadzista123!)</t>
+  </si>
+  <si>
+    <t>T_3.4.2</t>
+  </si>
+  <si>
+    <t>Login: brygadzista2
+Email: adam.lewandowski@firmowy.pl</t>
+  </si>
+  <si>
+    <t>System weryfikuje, czy wprowadzone dane odpowiadają istniejącemu użytkownikowi.
+System wyświetla komunikat: "Nieprawidłowy login lub email"</t>
+  </si>
+  <si>
+    <t>T_3.4.3</t>
+  </si>
+  <si>
+    <t>Nieprawidłowe odzyskiwanie hasła: nieprawidłowy login</t>
+  </si>
+  <si>
+    <t>Login: brygadzista2
+Email: karol.lewandowski@firmowy.pl</t>
+  </si>
+  <si>
+    <t>T_3.5</t>
+  </si>
+  <si>
+    <t>Ustawienie nowego hasła przez użytkownika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umożliwienie użytkownikowi nadania swojego </t>
+  </si>
+  <si>
+    <t>Hasło zostało wygenerowane, wyświetlone i nadpisane w miejsce starego hasła</t>
+  </si>
+  <si>
+    <t>T_3.5.1</t>
+  </si>
+  <si>
+    <t>Poprawne ustawienie nowego hasła przez użytkownika</t>
+  </si>
+  <si>
+    <t>Login: brygadzista1
+Stare hasło: 0_G9wpBu#X
+Nowe hasło: Brygadzista321!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Aktor otwiera stronę „Odzyskiwanie hasła”.
+2.  System wyświetla formularz z polami: login oraz adres e-mail.
+3. Aktor wprowadza dane powiązane z kontem (login i e-mail).
+4. Aktor klika przycisk „Odzyskaj hasło”.
+5. System weryfikuje poprawność podanych danych.
+6.System generuje nowe, losowe hasło.
+7.Nadpisuje stare hasło w bazie danych nowym hasłem.
+8.Wyświetla użytkownikowi komunikat z nowym hasłem.
+9.Aktor zamyka komunikat i przechodzi do panelu logowania
+10.System wyświetla panel logowania
+11.Aktor używa nowego hasła do zalogowania się do systemu.
+12. Po zalogowaniu użytkownik przechodzi do panelu edycji danych użytkownika
+13. Aktor wpisuje nowe, własne hasło i zatwierdza zmianę.
+</t>
+  </si>
+  <si>
+    <t>System zapisuje nowe hasło i wyswietla komunikat: "Hasło zostało zmienione!"</t>
+  </si>
+  <si>
+    <t>T_3.5.2</t>
+  </si>
+  <si>
+    <t>Niepoprawne ustawienie nowego hasła przez użytkownika: puste pola</t>
+  </si>
+  <si>
+    <t>System wyswietla komunikat: "Wprowadź login!"</t>
+  </si>
+  <si>
+    <t>T_3.5.3</t>
+  </si>
+  <si>
+    <t>Niepoprawne ustawienie nowego hasła przez użytkownika: nieprawidłowy login</t>
+  </si>
+  <si>
+    <t>Login: brygadzista2
+Stare hasło: Brygadzista321!
+Nowe hasło: Brygadzista123!</t>
+  </si>
+  <si>
+    <t>System wyswietla komunikat: "Nieprawidłowe stare hasło lub login!"</t>
+  </si>
+  <si>
+    <t>T_3.5.4</t>
+  </si>
+  <si>
+    <t>Niepoprawne ustawienie nowego hasła przez użytkownika: nieprawidłowe stare hasło</t>
+  </si>
+  <si>
+    <t>Login: brygadzista1
+Stare hasło: Brygadzista3211!
+Nowe hasło: Brygadzista123!</t>
+  </si>
+  <si>
+    <t>T_3.5.5</t>
+  </si>
+  <si>
+    <t>Login: brygadzista1
+Stare hasło: Brygadzista3211!
+Nowe hasło: Brygadzista123</t>
+  </si>
+  <si>
+    <t>Niepoprawne ustawienie nowego hasła przez użytkownika: nowe hasło nie spełnia kryteriów walidacji hasła T_3.3.2-T_3.3.7</t>
+  </si>
+  <si>
+    <t>T_3.6</t>
+  </si>
+  <si>
+    <t>Automatyczne generowanie hasła przez system</t>
+  </si>
+  <si>
+    <t>Wygenerowanie hasła dla użytkownika</t>
+  </si>
+  <si>
+    <t>Użytkownik posiada już hasło</t>
+  </si>
+  <si>
+    <t>T_3.6.1</t>
+  </si>
+  <si>
+    <t>Poprawne automatyczne generowania hasła przez system</t>
+  </si>
+  <si>
+    <t>1. Użytkownik otwiera panel „Odzyskiwanie hasła”.
+2. System wyświetla formularz z polami: login oraz adres e-mail.
+3. Użytkownik wprowadza dane powiązane z kontem (login i adres e-mail).
+4. Użytkownik klika przycisk „Generuj nowe hasło”.</t>
+  </si>
+  <si>
+    <t>System weryfikuje poprawność podanych danych.
+System generuje nowe, losowe hasło.
+System nowe wygenerowane hasło zapisuje w bazie danych, zastępując stare.
+System wyświetla użytkownikowi nowe hasło w formie komunikatu: "Nowe hasło: Z&amp;a!dTuF49; Hasło zostało zaktualizowane!"</t>
+  </si>
+  <si>
+    <t>T_3.6.2</t>
+  </si>
+  <si>
+    <t>Niepoprawne automatyczne generowania hasła przez system: nieprawidłowe dane loginu lub email</t>
+  </si>
+  <si>
+    <t>Login: brygadzista2
+Email: karol.lewandowskifirmowy.pl</t>
+  </si>
+  <si>
+    <t>System wyswietla komunikat: "Nieprawidłowy login lub email!"</t>
+  </si>
+  <si>
+    <t>T_3.1.6</t>
+  </si>
+  <si>
+    <t>Niepoprawne logowanie użytkownika: brak hasła</t>
+  </si>
+  <si>
+    <t>Login: brygadzista
+Hasło: " "</t>
+  </si>
+  <si>
+    <t>T_3.1.7</t>
+  </si>
+  <si>
+    <t>Niepoprawne logowanie użytkownika: brak loginu</t>
+  </si>
+  <si>
+    <t>Login: " "
+Hasło Brygadzista123!</t>
+  </si>
+  <si>
+    <t>T_3.1.8</t>
+  </si>
+  <si>
+    <t>Niepoprawne logowanie użytkownika: błędne dane logowania</t>
+  </si>
+  <si>
+    <t>Login: brygadzista2
+Hasło: Brygadzista1234!</t>
+  </si>
+  <si>
+    <t>1.System udostępnia panele
+2. Użytkownik wpisuje hasło bez loginu
+3. Użytkownik naciska przycisk „Zaloguj”.</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i uznaje je za nie poprawne i wyświetla komunikat: "Wprowadź login i hasło"</t>
+  </si>
+  <si>
+    <t>1.System udostępnia panele
+2. Użytkownik wpisuje login bez hasła
+3. Użytkownik naciska przycisk „Zaloguj”.</t>
+  </si>
+  <si>
+    <t>1.System udostępnia panele
+2. Użytkownik wpisuje login i hasło
+3. Użytkownik naciska przycisk „Zaloguj”.</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i uznaje je za poprawne i wyświetla się komunikat o treści: „zalogowano pomyślnie”.
+Użytkownik zostaje zalogowany.
+System udostępnia panel z uprawnieniami brygadzisty</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i uznaje je za poprawne i wyświetla się komunikat o treści: „zalogowano pomyślnie”.
+Użytkownik zostaje zalogowany.
+System udostępnia panel z uprawnieniami kontrolera jakości</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i uznaje je za poprawne i wyświetla się komunikat o treści: „zalogowano pomyślnie”.
+Użytkownik zostaje zalogowany.
+System udostępnia panel z uprawnieniami kierownika</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i uznaje je za poprawne i wyświetla się komunikat o treści: „zalogowano pomyślnie”.
+Użytkownik zostaje zalogowany.
+System udostępnia panel z uprawnieniami administratora</t>
+  </si>
+  <si>
+    <t>System sprawdza poprawność danych i uznaje je za nie poprawne i wyświetla komunikat: "Błędne dane logowania"</t>
+  </si>
+  <si>
+    <t>1. Aktor otwiera panel Lista użytkowników.
+2. System udostępnia panel Lista użytkowników
+3. Aktor wybiera użytkownika którego hasło ma być zmienione z tabeli wyświetlanej (Maria Wójcik)
+4. Aktor przechodzi do panelu edytuj dane tego użytkownika.
+5. System udostępnia panel edycja użytkownika
+6.Aktor zmienia hasło użytkownika w polu hasło, które nie zgodne z walidacją haseł
+7.Aktor naciska przycisk Zapisz</t>
+  </si>
+  <si>
+    <t>1. Użytkownik naciska przycisk „Zapomniałem hasła”.
+2. System wyświetla formularz z polami: login oraz adres e-mail.
+3. Użytkownik wprowadza nieprawidłowy login i adres e-mail przypisany do konta.
+4. Użytkownik naciska przycisk „Odzyskaj hasło”.</t>
+  </si>
+  <si>
+    <t>Nieprawidłowe odzyskiwanie hasła: nieprawidłowy email</t>
+  </si>
+  <si>
+    <t>1. Użytkownik naciska przycisk „Zapomniałem hasła”.
+2. System wyświetla formularz z polami: login oraz adres e-mail.
+3. Użytkownik wprowadza login i nieprawidłowy adres e-mail przypisany do konta.
+4. Użytkownik naciska przycisk „Odzyskaj hasło”.</t>
+  </si>
+  <si>
+    <t>1. Aktor otwiera stronę „Odzyskiwanie hasła”.
+2.  System wyświetla formularz z polami: login oraz adres e-mail.
+3. Aktor wprowadza dane powiązane z kontem (login i e-mail).
+4. Aktor klika przycisk „Odzyskaj hasło”.
+5. System weryfikuje poprawność podanych danych.
+6.System generuje nowe, losowe hasło.
+7.Nadpisuje stare hasło w bazie danych nowym hasłem.
+8.Wyświetla użytkownikowi komunikat z nowym hasłem.
+9.Aktor zamyka komunikat i przechodzi do panelu logowania
+10.System wyświetla panel logowania
+11.Aktor używa nowego hasła do zalogowania się do systemu.
+12. Po zalogowaniu użytkownik przechodzi do panelu edycji danych użytkownika
+13. Aktor nic nie wpisuje w polach dla zmian hasła</t>
+  </si>
+  <si>
+    <t>1. Aktor otwiera stronę „Odzyskiwanie hasła”.
+2.  System wyświetla formularz z polami: login oraz adres e-mail.
+3. Aktor wprowadza dane powiązane z kontem (login i e-mail).
+4. Aktor klika przycisk „Odzyskaj hasło”.
+5. System weryfikuje poprawność podanych danych.
+6.System generuje nowe, losowe hasło.
+7.Nadpisuje stare hasło w bazie danych nowym hasłem.
+8.Wyświetla użytkownikowi komunikat z nowym hasłem.
+9.Aktor zamyka komunikat i przechodzi do panelu logowania
+10.System wyświetla panel logowania
+11.Aktor używa nowego hasła do zalogowania się do systemu.
+12. Po zalogowaniu użytkownik przechodzi do panelu edycji danych użytkownika
+13. Aktor wpisuje nieprawidłowy login i poprawne stare i nowe hasło</t>
+  </si>
+  <si>
+    <t>1. Aktor otwiera stronę „Odzyskiwanie hasła”.
+2.  System wyświetla formularz z polami: login oraz adres e-mail.
+3. Aktor wprowadza dane powiązane z kontem (login i e-mail).
+4. Aktor klika przycisk „Odzyskaj hasło”.
+5. System weryfikuje poprawność podanych danych.
+6.System generuje nowe, losowe hasło.
+7.Nadpisuje stare hasło w bazie danych nowym hasłem.
+8.Wyświetla użytkownikowi komunikat z nowym hasłem.
+9.Aktor zamyka komunikat i przechodzi do panelu logowania
+10.System wyświetla panel logowania
+11.Aktor używa nowego hasła do zalogowania się do systemu.
+12. Po zalogowaniu użytkownik przechodzi do panelu edycji danych użytkownika
+13. Aktor wpisuje poprawny login z nowym hasłem i nieprawidłowe stare hasło</t>
+  </si>
+  <si>
+    <t>1. Aktor otwiera stronę „Odzyskiwanie hasła”.
+2.  System wyświetla formularz z polami: login oraz adres e-mail.
+3. Aktor wprowadza dane powiązane z kontem (login i e-mail).
+4. Aktor klika przycisk „Odzyskaj hasło”.
+5. System weryfikuje poprawność podanych danych.
+6.System generuje nowe, losowe hasło.
+7.Nadpisuje stare hasło w bazie danych nowym hasłem.
+8.Wyświetla użytkownikowi komunikat z nowym hasłem.
+9.Aktor zamyka komunikat i przechodzi do panelu logowania
+10.System wyświetla panel logowania
+11.Aktor używa nowego hasła do zalogowania się do systemu.
+12. Po zalogowaniu użytkownik przechodzi do panelu edycji danych użytkownika
+13. Aktor wpisuje poprawny login z starym hasłem i nowe hasło które nie spewnia kryteriów walidacji hasła</t>
+  </si>
+  <si>
+    <t>1. Użytkownik otwiera panel „Odzyskiwanie hasła”.
+2. System wyświetla formularz z polami: login oraz adres e-mail.
+3. Użytkownik wprowadza nieprawidłowe dane: login lub email
+4. Użytkownik klika przycisk „Generuj nowe hasło”.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1196,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,133 +1760,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,6 +1877,86 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="64" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,20 +2260,20 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1727,8 +2333,8 @@
       <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>205</v>
+      <c r="I4" s="49" t="s">
+        <v>204</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>18</v>
@@ -1751,7 +2357,7 @@
       <c r="I5" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="57" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="4"/>
@@ -1772,7 +2378,7 @@
       <c r="I6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,7 +2397,7 @@
       <c r="I7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="43"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1810,7 +2416,7 @@
       <c r="I8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J8" s="43"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1829,7 +2435,7 @@
       <c r="I9" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="43"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1848,7 +2454,7 @@
       <c r="I10" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="44"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1867,7 +2473,7 @@
       <c r="I11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="56" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="4"/>
@@ -1888,7 +2494,7 @@
       <c r="I12" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="43"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1907,7 +2513,7 @@
       <c r="I13" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="63" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="4"/>
@@ -1928,7 +2534,7 @@
       <c r="I14" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J14" s="49"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1947,7 +2553,7 @@
       <c r="I15" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="4"/>
       <c r="L15" s="2"/>
     </row>
@@ -1967,7 +2573,7 @@
       <c r="I16" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="56" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1987,7 +2593,7 @@
       <c r="I17" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
@@ -2005,7 +2611,7 @@
       <c r="I18" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
@@ -2023,7 +2629,7 @@
       <c r="I19" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J19" s="44"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
@@ -2115,7 +2721,7 @@
       <c r="I23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="55" t="s">
         <v>74</v>
       </c>
       <c r="K23" s="4"/>
@@ -2505,15 +3111,15 @@
       <c r="H39" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>174</v>
+      <c r="I39" s="48" t="s">
+        <v>236</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2521,16 +3127,16 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="13" t="s">
+      <c r="J40" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -2541,16 +3147,16 @@
       <c r="E41" s="36"/>
       <c r="F41" s="37"/>
       <c r="G41" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="J41" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="K41" s="4"/>
     </row>
@@ -2562,16 +3168,16 @@
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
       <c r="G42" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="J42" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="K42" s="4"/>
     </row>
@@ -2583,16 +3189,16 @@
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="J43" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="K43" s="4"/>
     </row>
@@ -2604,16 +3210,16 @@
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
       <c r="G44" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="J44" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="K44" s="4"/>
     </row>
@@ -2625,46 +3231,46 @@
       <c r="E45" s="40"/>
       <c r="F45" s="39"/>
       <c r="G45" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="I45" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="J45" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" ht="409.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="C46" s="29" t="s">
         <v>200</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>201</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>151</v>
       </c>
       <c r="E46" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="G46" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="G46" s="41" t="s">
-        <v>204</v>
-      </c>
       <c r="H46" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J46" s="29" t="s">
         <v>18</v>
@@ -2673,13 +3279,13 @@
     </row>
     <row r="47" spans="1:11" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H47" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>44</v>
@@ -2688,13 +3294,13 @@
     </row>
     <row r="48" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="G48" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>84</v>
@@ -2704,13 +3310,13 @@
     <row r="49" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D49" s="5"/>
       <c r="G49" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>47</v>
@@ -2719,13 +3325,13 @@
     </row>
     <row r="50" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="G50" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>37</v>
@@ -2734,13 +3340,13 @@
     </row>
     <row r="51" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="G51" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>22</v>
@@ -2748,65 +3354,606 @@
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="54"/>
+      <c r="D52" s="45"/>
       <c r="G52" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H52" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="I52" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="I52" s="51" t="s">
+      <c r="J52" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" ht="339.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="J52" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" ht="339.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="52" t="s">
+      <c r="B53" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="C53" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="D53" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="F53" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="G53" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="H53" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H53" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="I53" s="51" t="s">
+      <c r="I53" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="J54" s="50"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E59" s="2"/>
+    <row r="54" spans="1:11" ht="226.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J54" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J55" s="67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="G59" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="F60" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G60" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G61" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I61" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I62" s="54"/>
+      <c r="J62" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" ht="216.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="G63" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="I63" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="J63" s="72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="F64" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="F65" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="F66" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="G66" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="F67" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="F68" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G68" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J68" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F69" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J69" s="67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="130.19999999999999" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G70" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="I70" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="J70" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" s="70"/>
+    </row>
+    <row r="71" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F71" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F72" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G72" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J72" s="67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="403.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="G73" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="H73" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J73" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="F74" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J74" s="67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G75" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="J75" s="67" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E77" s="45"/>
+      <c r="F77" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G77" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" ht="216.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="D78" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="I78" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="J78" s="67" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="3"/>
+      <c r="F79" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="G79" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J79" s="47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2818,5 +3965,6 @@
     <mergeCell ref="J13:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>